--- a/DISCREPANCIES.xlsx
+++ b/DISCREPANCIES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.ricor\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.ricor\Documents\fileFormater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E501C5-F99B-42C9-9B8B-017ABAC830B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693B172C-AB0D-4465-9EEF-16FAB83ED839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="81">
   <si>
     <t>DISCREPANCY</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>DEP_BIRTH_DATE,RELATION_CODE</t>
+  </si>
+  <si>
+    <t>EFFECTIVE_DATE</t>
   </si>
 </sst>
 </file>
@@ -627,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF39FD4-19BC-4B7E-88A5-DBD87F6FB681}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1044,9 @@
       <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1157,7 +1162,9 @@
       <c r="C39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">

--- a/DISCREPANCIES.xlsx
+++ b/DISCREPANCIES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.ricor\Documents\fileFormater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693B172C-AB0D-4465-9EEF-16FAB83ED839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB63742-BBE7-48FB-9CDD-9DF590FF8E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="key word mapping" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="82">
   <si>
     <t>DISCREPANCY</t>
   </si>
@@ -278,7 +278,10 @@
     <t>DEP_BIRTH_DATE,RELATION_CODE</t>
   </si>
   <si>
-    <t>EFFECTIVE_DATE</t>
+    <t>DEP_EFFECTIVE_DATE</t>
+  </si>
+  <si>
+    <t>EE_GENDER</t>
   </si>
 </sst>
 </file>
@@ -630,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF39FD4-19BC-4B7E-88A5-DBD87F6FB681}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1115,9 @@
       <c r="C35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -1264,5 +1269,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>